--- a/biology/Biologie cellulaire et moléculaire/Trudy_Mackay/Trudy_Mackay.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Trudy_Mackay/Trudy_Mackay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trudy Frances Charlene Mackay est une généticienne écossaise, née le 10 septembre 1952 spécialisée dans la génétique quantitative. Elle est professeure à l'Université d'État de Caroline du Nord, à Raleigh[1]. Elle est connue pour avoir élaboré un panel de référence génétique de la drosophile.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trudy Frances Charlene Mackay est une généticienne écossaise, née le 10 septembre 1952 spécialisée dans la génétique quantitative. Elle est professeure à l'Université d'État de Caroline du Nord, à Raleigh. Elle est connue pour avoir élaboré un panel de référence génétique de la drosophile.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1974, elle obtient son baccalauréat universitaire en sciences et sa maîtrise universitaire ès sciences en 1976 en biologie à l'Université Dalhousie. En 1979, elle soutient sa thèse en génétique à l'Université d'Édimbourg[2]. 
-Elle a été élue membre de la Royal Society en 2006[3]. 
-Elle a reçu la médaille de la société américaine de génétique en 2004 et le Prix Wolf d'agriculture en 2016[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1974, elle obtient son baccalauréat universitaire en sciences et sa maîtrise universitaire ès sciences en 1976 en biologie à l'Université Dalhousie. En 1979, elle soutient sa thèse en génétique à l'Université d'Édimbourg. 
+Elle a été élue membre de la Royal Society en 2006. 
+Elle a reçu la médaille de la société américaine de génétique en 2004 et le Prix Wolf d'agriculture en 2016.
 </t>
         </is>
       </c>
